--- a/data/trans_dic/P55$nadie-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Dificultad-trans_dic.xlsx
@@ -715,31 +715,31 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.01785670893574089</v>
+        <v>0.01771771826762489</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04236156001850636</v>
+        <v>0.04180876484001005</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01077633501286022</v>
+        <v>0.01187257964053431</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06473535562779287</v>
+        <v>0.06197492862708531</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03175459239621828</v>
+        <v>0.03649955655961717</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03723398647400987</v>
+        <v>0.03744273698658022</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01495571759675365</v>
+        <v>0.0147629503301976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04794638165165163</v>
+        <v>0.04596532038950622</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03659617279048403</v>
+        <v>0.03785763717751081</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1585978493630217</v>
+        <v>0.1673572060163784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1463168086071675</v>
+        <v>0.1410854352173777</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1578740378450261</v>
+        <v>0.1767277500581392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1560624452413188</v>
+        <v>0.1500405162540258</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09971416377295349</v>
+        <v>0.110118006748705</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2112636375234482</v>
+        <v>0.217133331824012</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1072994642813434</v>
+        <v>0.1189824623095955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1232429850553748</v>
+        <v>0.1198233274515379</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.08769908873517368</v>
+        <v>0.0877567187124946</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1627430887515173</v>
+        <v>0.161755619470763</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1073835385996063</v>
+        <v>0.111965613591929</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.02378560085301137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0526714712410414</v>
+        <v>0.05267147124104139</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.04581637781211489</v>
@@ -829,7 +829,7 @@
         <v>0.04990631668582995</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04292629820796989</v>
+        <v>0.04292629820796988</v>
       </c>
     </row>
     <row r="8">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02108459956064723</v>
+        <v>0.02120211361784931</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -849,31 +849,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01680997690270906</v>
+        <v>0.01614294379212117</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01248236269205314</v>
+        <v>0.01231573071015742</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01679489667698329</v>
+        <v>0.01709130326131826</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01913668035109288</v>
+        <v>0.02014237913020145</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02538807454634689</v>
+        <v>0.03140093355762729</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.007138927315390562</v>
+        <v>0.007144220229867541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01628942422988183</v>
+        <v>0.01841945740901688</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02282628483992074</v>
+        <v>0.0244160903468903</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2103736097044792</v>
+        <v>0.2171584944416892</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1734747336375017</v>
+        <v>0.1731098501310904</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09850875835679608</v>
+        <v>0.1183107826857714</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1398841972627292</v>
+        <v>0.1406196538313872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1327735394320236</v>
+        <v>0.1363970989846983</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06252054135044334</v>
+        <v>0.0525008823561279</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1408053649277681</v>
+        <v>0.1543513412338945</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06761548237479378</v>
+        <v>0.0711354204824734</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1324544784607169</v>
+        <v>0.1441976058322786</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05992782576429551</v>
+        <v>0.05856410077627389</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1042588660880731</v>
+        <v>0.1133022294636992</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07152346743260139</v>
+        <v>0.07281237539462175</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.03623116845535491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.009118915002094085</v>
+        <v>0.009118915002094087</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.07619407039756278</v>
@@ -984,17 +984,17 @@
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02165148049600105</v>
+        <v>0.0219641523179665</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.01020089268058869</v>
+        <v>0.01055756273110259</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0139306298958413</v>
+        <v>0.01401010897438656</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01095678977445841</v>
+        <v>0.009809233013024337</v>
       </c>
     </row>
     <row r="12">
@@ -1016,32 +1016,32 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.1752225980265545</v>
+        <v>0.1784520040056634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04742313342666935</v>
+        <v>0.05117664538735176</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1959162864025186</v>
+        <v>0.1857116646579359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1031884948486389</v>
+        <v>0.1114745046306935</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.0730704771467526</v>
+        <v>0.07252228883517174</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1435638446259855</v>
+        <v>0.1267141745709615</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05605924166634561</v>
+        <v>0.05619982066171655</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06781064800867419</v>
+        <v>0.06687117690032544</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05568715251258451</v>
+        <v>0.05942214884651784</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08279395098608151</v>
+        <v>0.08279395098608153</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0.1421406520818859</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05489893477419456</v>
+        <v>0.05489893477419455</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0.08258578095234392</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06794167859965526</v>
+        <v>0.06794167859965528</v>
       </c>
     </row>
     <row r="14">
@@ -1105,25 +1105,25 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.032276712450375</v>
+        <v>0.0299350588583443</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.04554219172702547</v>
+        <v>0.04563648614298979</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02155982481694969</v>
+        <v>0.02135256769248874</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02666270735683447</v>
+        <v>0.02672178447466145</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03551462402963231</v>
+        <v>0.03436363002860519</v>
       </c>
     </row>
     <row r="15">
@@ -1135,29 +1135,29 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.48940999774964</v>
+        <v>0.4843044031994431</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.1753694465318968</v>
+        <v>0.1728494952209527</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.337331682851908</v>
+        <v>0.3433285402510933</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1197462426250778</v>
+        <v>0.1210696032521906</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.2430458247825047</v>
+        <v>0.2495803141288073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2175333417855338</v>
+        <v>0.1964583768795779</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1158388396414409</v>
+        <v>0.1158318026386653</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.05940595641741905</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04890897673008167</v>
+        <v>0.04890897673008168</v>
       </c>
     </row>
     <row r="17">
@@ -1216,40 +1216,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0223434027864206</v>
+        <v>0.02286311552030676</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0144257409816262</v>
+        <v>0.013915177011288</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03059719818082785</v>
+        <v>0.03185048324760478</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04276536400534032</v>
+        <v>0.04069065979943297</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01035892010072773</v>
+        <v>0.007843884249836099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04833930006609729</v>
+        <v>0.05079565481780679</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03259326722162579</v>
+        <v>0.03122400983424361</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03871909931606576</v>
+        <v>0.04135607185909696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0152040431558078</v>
+        <v>0.0144499129430116</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03822242385572705</v>
+        <v>0.03663553701345384</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03518645044553508</v>
+        <v>0.03650017434603961</v>
       </c>
     </row>
     <row r="18">
@@ -1260,40 +1260,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1226491824784194</v>
+        <v>0.1127283112885371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1085719921216879</v>
+        <v>0.1074311878949166</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0551666816934069</v>
+        <v>0.05046175692688848</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08963925908394541</v>
+        <v>0.09071297942199472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1098183393865109</v>
+        <v>0.1107126943840161</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04581535125280549</v>
+        <v>0.04571102116110069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.121495968301603</v>
+        <v>0.1233279778666901</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06597474522749738</v>
+        <v>0.06654811763649779</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09021100119242417</v>
+        <v>0.09645719405646133</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0523838371443954</v>
+        <v>0.05379560439372164</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09158929820268286</v>
+        <v>0.08737534391260635</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06507874112226363</v>
+        <v>0.06474818479905659</v>
       </c>
     </row>
     <row r="19">
@@ -1571,31 +1571,31 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4717</v>
+        <v>4656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1060</v>
+        <v>1167</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6907</v>
+        <v>6613</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2726</v>
+        <v>3134</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5602</v>
+        <v>5633</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2187</v>
+        <v>2159</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>7009</v>
+        <v>6720</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4132</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="7">
@@ -1606,38 +1606,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6200</v>
+        <v>6542</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7010</v>
+        <v>6759</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4271</v>
+        <v>4781</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17378</v>
+        <v>16708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9804</v>
+        <v>10827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22542</v>
+        <v>23168</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9212</v>
+        <v>10215</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18542</v>
+        <v>18027</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12824</v>
+        <v>12832</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23792</v>
+        <v>23647</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12124</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
@@ -1749,31 +1749,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>925</v>
+        <v>888</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1217</v>
+        <v>1239</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2361</v>
+        <v>2485</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2780</v>
+        <v>3438</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1724</v>
+        <v>1949</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>4072</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="11">
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10565</v>
+        <v>10905</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7136</v>
+        <v>7121</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3287</v>
+        <v>3947</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7697</v>
+        <v>7738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7870</v>
+        <v>8084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5880</v>
+        <v>4937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10203</v>
+        <v>11185</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8342</v>
+        <v>8777</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14502</v>
+        <v>15788</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8101</v>
+        <v>7917</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>11033</v>
+        <v>11990</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>12760</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="12">
@@ -1928,17 +1928,17 @@
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>871</v>
+        <v>902</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1337</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="15">
@@ -1960,32 +1960,32 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5123</v>
+        <v>5217</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1735</v>
+        <v>1872</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8176</v>
+        <v>7750</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5975</v>
+        <v>6454</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>6241</v>
+        <v>6194</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9327</v>
+        <v>8233</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>5492</v>
+        <v>5506</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6304</v>
+        <v>6216</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>6793</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="16">
@@ -2093,25 +2093,25 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1605</v>
+        <v>1489</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3778</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="19">
@@ -2123,29 +2123,29 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>7810</v>
+        <v>7729</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>8722</v>
+        <v>8597</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>7874</v>
+        <v>8014</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6782</v>
+        <v>6857</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>10722</v>
+        <v>11010</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>8739</v>
+        <v>7893</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>12322</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="20">
@@ -2248,40 +2248,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2736</v>
+        <v>2800</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2093</v>
+        <v>2019</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5152</v>
+        <v>5363</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9595</v>
+        <v>9130</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2884</v>
+        <v>2184</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12869</v>
+        <v>13523</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>11449</v>
+        <v>10968</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13429</v>
+        <v>14344</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6439</v>
+        <v>6119</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14722</v>
+        <v>14110</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18285</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="23">
@@ -2292,40 +2292,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>15021</v>
+        <v>13806</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15750</v>
+        <v>15585</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6561</v>
+        <v>6001</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15094</v>
+        <v>15275</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>24640</v>
+        <v>24840</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12756</v>
+        <v>12727</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32346</v>
+        <v>32834</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>23176</v>
+        <v>23377</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>31289</v>
+        <v>33455</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>22184</v>
+        <v>22782</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>35276</v>
+        <v>33653</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>33819</v>
+        <v>33647</v>
       </c>
     </row>
     <row r="24">
